--- a/medicine/Nettoyage et hygiène/Savon_Azul_e_Branco/Savon_Azul_e_Branco.xlsx
+++ b/medicine/Nettoyage et hygiène/Savon_Azul_e_Branco/Savon_Azul_e_Branco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Azul e Branco (bleue et blanc) est un savon portugais comparable au savon de Marseille, mais de couleur bleue et blanc, comme la traduction de son nom l’indique.
 </t>
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Autrefois
-Autrefois il était beaucoup utilisé pour laver le linge dans les lavoirs des villages, laver les tapis et laver le sol.
-Maintenant
-Son utilisation a été réduite, il sert à laver les tapis et les sols, mais pour le linge il n'y a plus que quelques personnes à l'utiliser encore.
+          <t>Autrefois</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autrefois il était beaucoup utilisé pour laver le linge dans les lavoirs des villages, laver les tapis et laver le sol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Savon_Azul_e_Branco</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Nettoyage et hygiène/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Savon_Azul_e_Branco</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Maintenant</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son utilisation a été réduite, il sert à laver les tapis et les sols, mais pour le linge il n'y a plus que quelques personnes à l'utiliser encore.
 </t>
         </is>
       </c>
